--- a/data/trans_dic/PCS12_SP_R2-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/PCS12_SP_R2-Dificultad-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.4221857036487832</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.5212293835889545</v>
+        <v>0.5212293835889544</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.7095553763815998</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.5251561440015063</v>
+        <v>0.5243355461807013</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4353080768878408</v>
+        <v>0.4365619964655953</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3938212122466049</v>
+        <v>0.3913618740422961</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.4683163594708976</v>
+        <v>0.4719764132798153</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.6791783843833904</v>
+        <v>0.6792072712863882</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.560085828114072</v>
+        <v>0.5596781596741973</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.5051391560024407</v>
+        <v>0.5066557596666119</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.5559517645031372</v>
+        <v>0.5572681730974898</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.6264625136372579</v>
+        <v>0.6303775959443616</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.5099926083226737</v>
+        <v>0.5099877499100181</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.4610750992210078</v>
+        <v>0.4603539578584983</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.5325940218566841</v>
+        <v>0.5284361951153879</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6056763130208603</v>
+        <v>0.6082669661563089</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5007948958681587</v>
+        <v>0.5001571424564678</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4516038299671655</v>
+        <v>0.4527604858131981</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.5724231749060402</v>
+        <v>0.5720879986152105</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.7391852501796852</v>
+        <v>0.7415705515358914</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.6199859555015061</v>
+        <v>0.6211384851318323</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.5623233018119804</v>
+        <v>0.5636448360023245</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.6289543617269938</v>
+        <v>0.6313864540096903</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.6771109374849654</v>
+        <v>0.6803881967343564</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.5536612305872672</v>
+        <v>0.5521417661940269</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.5017221808850321</v>
+        <v>0.5016606701338933</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.5933333047641303</v>
+        <v>0.5897311327080244</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.3988559147324492</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.49116544325676</v>
+        <v>0.4911654432567599</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.399802758427581</v>
+        <v>0.4035476974133229</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3921357681474414</v>
+        <v>0.3891935749217231</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3234333244631526</v>
+        <v>0.3246167182659849</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.3920395907870699</v>
+        <v>0.3944743593051321</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.510986316094908</v>
+        <v>0.5093827873213821</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.5155510674307376</v>
+        <v>0.5106276188766973</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.4076940986414239</v>
+        <v>0.4082740358583187</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.5189165295442291</v>
+        <v>0.5183922520998395</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.4651694666651666</v>
+        <v>0.4616417538681372</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.4608649201201338</v>
+        <v>0.4634271642584873</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.3773650271324406</v>
+        <v>0.37506838941629</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.4683983796265668</v>
+        <v>0.4688857194476864</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4652767386986692</v>
+        <v>0.4638214218505718</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4550430067990641</v>
+        <v>0.4572162959316637</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3883285933659976</v>
+        <v>0.3882561800698471</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.462890565800578</v>
+        <v>0.4627122149198661</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5708248164748521</v>
+        <v>0.5701369106103201</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.5760576066794781</v>
+        <v>0.5728827500071549</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.4737406682309719</v>
+        <v>0.4705684913626496</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.5742654558364662</v>
+        <v>0.5732433051785474</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.5093968915692429</v>
+        <v>0.5076996960508136</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.5090501991522794</v>
+        <v>0.5076563261260585</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.4223484329145826</v>
+        <v>0.4214025310166127</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.5104491385835289</v>
+        <v>0.513380148954521</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3513638960746734</v>
+        <v>0.3491399321996111</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.4008878888698307</v>
+        <v>0.4052783835648837</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3440606910893204</v>
+        <v>0.3454294207958918</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3889177910228537</v>
+        <v>0.3903622058713336</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.4786323491146499</v>
+        <v>0.4778284739472824</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.4669356158439519</v>
+        <v>0.4642749799272184</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.4267276369852649</v>
+        <v>0.4269821163479033</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.4678198063797532</v>
+        <v>0.469288817835746</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.4178077012763863</v>
+        <v>0.4179996531871189</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.4457733279843837</v>
+        <v>0.4441788091691353</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.3953268992429226</v>
+        <v>0.3951460985166807</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.436313542056762</v>
+        <v>0.4387257259045894</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4087987002477785</v>
+        <v>0.4079164876950248</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4753421620461526</v>
+        <v>0.473281851684685</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4099454262000062</v>
+        <v>0.4139225550330937</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4561938981742784</v>
+        <v>0.4555008559631131</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.5447867387497639</v>
+        <v>0.5396006626012344</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.5345901211485288</v>
+        <v>0.5321899948654464</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.501699755667449</v>
+        <v>0.5012058234657077</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.5242483020051329</v>
+        <v>0.5209964368588825</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.4627876630315722</v>
+        <v>0.4617581734154333</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.4945700498183362</v>
+        <v>0.4932542513561353</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.4458617776597765</v>
+        <v>0.4458616530607871</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.4782724231542022</v>
+        <v>0.4797317375853059</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.3917827851599583</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.4867554814507278</v>
+        <v>0.4867554814507277</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.4628826920675467</v>
@@ -1093,7 +1093,7 @@
         <v>0.4364041773031958</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.5056567642792813</v>
+        <v>0.5056567642792814</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.3849062343757547</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2813100742815692</v>
+        <v>0.281217039935154</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3683035405188217</v>
+        <v>0.3689289461820613</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3460863930947038</v>
+        <v>0.3481338806430824</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.449123685239462</v>
+        <v>0.4545099425024375</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.401202626536159</v>
+        <v>0.4124670327985829</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.4456943035580333</v>
+        <v>0.4493527133975986</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.3918772979165008</v>
+        <v>0.3912308200233772</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.4763451467021305</v>
+        <v>0.4750543461870187</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.3525235132574141</v>
+        <v>0.350397603447593</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.4197012712118888</v>
+        <v>0.4156834043637551</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.3819835890501621</v>
+        <v>0.3818488568432913</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.473823593577038</v>
+        <v>0.4721500321873121</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.371668696154611</v>
+        <v>0.3749719454253788</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.4585850801443468</v>
+        <v>0.4569522205479828</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4321233730157902</v>
+        <v>0.4414329957527559</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.5223625663791559</v>
+        <v>0.5249400815607927</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.5113974896777972</v>
+        <v>0.5165435860297256</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.5416253838965511</v>
+        <v>0.5457088482323705</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4848666883484916</v>
+        <v>0.4833796695137921</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.5361288157526273</v>
+        <v>0.5376733554592844</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.4222921352219415</v>
+        <v>0.4190521825698379</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.4870227017979782</v>
+        <v>0.4828340215389115</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.4450358537792302</v>
+        <v>0.4458568424633793</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.520900689248912</v>
+        <v>0.51778955188987</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.4781715039554663</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.5297967785953031</v>
+        <v>0.5297967785953032</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.4973535783889735</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.4062288833107704</v>
+        <v>0.405378693672835</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.420513927680265</v>
+        <v>0.4213764109906611</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3715503502437026</v>
+        <v>0.3702292564561959</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.4371130290191187</v>
+        <v>0.4363568295529608</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.5525852616866095</v>
+        <v>0.5529567091323948</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.5229804340436046</v>
+        <v>0.5228837818295218</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.4607307383746927</v>
+        <v>0.4620645795834609</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.5150024067999034</v>
+        <v>0.5151804079266281</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.48440409539276</v>
+        <v>0.4833036235885834</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.4780509034084673</v>
+        <v>0.479011051764362</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.4216137094298933</v>
+        <v>0.4233209463458338</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.4819827790405573</v>
+        <v>0.4819871864867172</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4387453084753739</v>
+        <v>0.4404253551056464</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4574862366623112</v>
+        <v>0.4555399016853598</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4051543847444516</v>
+        <v>0.4062102704192284</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.4755015635904819</v>
+        <v>0.4740688821804122</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.5866360632399235</v>
+        <v>0.5877099059210715</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.5570326231064335</v>
+        <v>0.5579113243727533</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.4942241207224204</v>
+        <v>0.4950138615235612</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.5439641468428945</v>
+        <v>0.5450430761205604</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.5103210033385125</v>
+        <v>0.5092398035401874</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.5023874006701019</v>
+        <v>0.5043725678067402</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.4472833675919781</v>
+        <v>0.4466830933084512</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.5052688545626914</v>
+        <v>0.5054945591579219</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>306765</v>
+        <v>306286</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>454433</v>
+        <v>455742</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>444229</v>
+        <v>441455</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>231657</v>
+        <v>233467</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>626429</v>
+        <v>626455</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>627256</v>
+        <v>626799</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>636254</v>
+        <v>638164</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>344137</v>
+        <v>344952</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>943749</v>
+        <v>949647</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>1103554</v>
+        <v>1103544</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>1100844</v>
+        <v>1099122</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>593131</v>
+        <v>588500</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>353800</v>
+        <v>355314</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>522797</v>
+        <v>522132</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>509408</v>
+        <v>510712</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>283154</v>
+        <v>282988</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>681775</v>
+        <v>683975</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>694340</v>
+        <v>695630</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>708281</v>
+        <v>709945</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>389327</v>
+        <v>390832</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>1020050</v>
+        <v>1024987</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>1198047</v>
+        <v>1194759</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>1197891</v>
+        <v>1197744</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>660774</v>
+        <v>656762</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>430945</v>
+        <v>434982</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>383145</v>
+        <v>380271</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>293944</v>
+        <v>295020</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>374482</v>
+        <v>376807</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>540387</v>
+        <v>538692</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>564148</v>
+        <v>558760</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>410334</v>
+        <v>410918</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>576428</v>
+        <v>575846</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>993338</v>
+        <v>985805</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>954606</v>
+        <v>959913</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>722767</v>
+        <v>718368</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>967731</v>
+        <v>968738</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>501519</v>
+        <v>499950</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>444610</v>
+        <v>446734</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>352923</v>
+        <v>352857</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>442160</v>
+        <v>441989</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>603669</v>
+        <v>602941</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>630358</v>
+        <v>626884</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>476808</v>
+        <v>473615</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>637911</v>
+        <v>636776</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>1087782</v>
+        <v>1084158</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>1054413</v>
+        <v>1051526</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>808924</v>
+        <v>807112</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>1054610</v>
+        <v>1060665</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>394088</v>
+        <v>391593</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>354832</v>
+        <v>358718</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>283423</v>
+        <v>284551</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>406398</v>
+        <v>407907</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>475732</v>
+        <v>474933</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>408940</v>
+        <v>406610</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>329032</v>
+        <v>329228</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>489112</v>
+        <v>490648</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>883886</v>
+        <v>884292</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>784967</v>
+        <v>782159</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>630474</v>
+        <v>630186</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>912096</v>
+        <v>917138</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>458506</v>
+        <v>457517</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>420732</v>
+        <v>418909</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>337696</v>
+        <v>340972</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>476698</v>
+        <v>475973</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>541485</v>
+        <v>536331</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>468192</v>
+        <v>466090</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>386840</v>
+        <v>386459</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>548109</v>
+        <v>544709</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>979043</v>
+        <v>976865</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>870894</v>
+        <v>868577</v>
       </c>
       <c r="M15" s="6" t="n">
         <v>711068</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>999809</v>
+        <v>1002860</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>125802</v>
+        <v>125760</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>185265</v>
+        <v>185580</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>175362</v>
+        <v>176400</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>435601</v>
+        <v>440825</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>136873</v>
+        <v>140716</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>201782</v>
+        <v>203438</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>191902</v>
+        <v>191585</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>430291</v>
+        <v>429125</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>277915</v>
+        <v>276239</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>401133</v>
+        <v>397293</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>380608</v>
+        <v>380473</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>887570</v>
+        <v>884435</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>166210</v>
+        <v>167687</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>230679</v>
+        <v>229857</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>218957</v>
+        <v>223675</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>506634</v>
+        <v>509134</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>174467</v>
+        <v>176223</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>245213</v>
+        <v>247062</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>237438</v>
+        <v>236710</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>484294</v>
+        <v>485689</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>332917</v>
+        <v>330363</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>465476</v>
+        <v>461472</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>443433</v>
+        <v>444251</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>975755</v>
+        <v>969927</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1312456</v>
+        <v>1309709</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1433593</v>
+        <v>1436533</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1251115</v>
+        <v>1246666</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>1514469</v>
+        <v>1511849</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>1831803</v>
+        <v>1833034</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>1852774</v>
+        <v>1852432</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>1624901</v>
+        <v>1629606</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>1894522</v>
+        <v>1895177</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>3170811</v>
+        <v>3163608</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>3323346</v>
+        <v>3330021</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>2906637</v>
+        <v>2918406</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>3442983</v>
+        <v>3443014</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>1417511</v>
+        <v>1422939</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>1559637</v>
+        <v>1553002</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1364269</v>
+        <v>1367825</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>1647474</v>
+        <v>1642510</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>1944680</v>
+        <v>1948240</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>1973412</v>
+        <v>1976525</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>1743026</v>
+        <v>1745811</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>2001063</v>
+        <v>2005032</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>3340458</v>
+        <v>3333381</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>3492530</v>
+        <v>3506331</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>3083605</v>
+        <v>3079467</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>3609324</v>
+        <v>3610936</v>
       </c>
     </row>
     <row r="24">
